--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Adipoq</t>
+  </si>
+  <si>
+    <t>Adipor1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Adipoq</t>
-  </si>
-  <si>
-    <t>Adipor1</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H2">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I2">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.241015</v>
+        <v>30.042334</v>
       </c>
       <c r="N2">
-        <v>57.723045</v>
+        <v>90.127002</v>
       </c>
       <c r="O2">
-        <v>0.08527145291207991</v>
+        <v>0.1223972429286596</v>
       </c>
       <c r="P2">
-        <v>0.08527145291207991</v>
+        <v>0.1223972429286596</v>
       </c>
       <c r="Q2">
-        <v>0.7464231085666667</v>
+        <v>4.838387989479334</v>
       </c>
       <c r="R2">
-        <v>6.7178079771</v>
+        <v>43.54549190531401</v>
       </c>
       <c r="S2">
-        <v>0.01655259256711072</v>
+        <v>0.1223972429286596</v>
       </c>
       <c r="T2">
-        <v>0.01655259256711072</v>
+        <v>0.1223972429286596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H3">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I3">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>43.620058</v>
       </c>
       <c r="O3">
-        <v>0.06443779467575202</v>
+        <v>0.05923834940818538</v>
       </c>
       <c r="P3">
-        <v>0.06443779467575202</v>
+        <v>0.05923834940818537</v>
       </c>
       <c r="Q3">
-        <v>0.5640558166711112</v>
+        <v>2.341704040345111</v>
       </c>
       <c r="R3">
-        <v>5.07650235004</v>
+        <v>21.075336363106</v>
       </c>
       <c r="S3">
-        <v>0.01250843658417082</v>
+        <v>0.05923834940818538</v>
       </c>
       <c r="T3">
-        <v>0.01250843658417082</v>
+        <v>0.05923834940818537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H4">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I4">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.14765800000001</v>
+        <v>28.363023</v>
       </c>
       <c r="N4">
-        <v>102.442974</v>
+        <v>85.08906899999999</v>
       </c>
       <c r="O4">
-        <v>0.1513340336362094</v>
+        <v>0.1155554630449871</v>
       </c>
       <c r="P4">
-        <v>0.1513340336362094</v>
+        <v>0.1155554630449871</v>
       </c>
       <c r="Q4">
-        <v>1.324701479346667</v>
+        <v>4.567931034537001</v>
       </c>
       <c r="R4">
-        <v>11.92231331412</v>
+        <v>41.111379310833</v>
       </c>
       <c r="S4">
-        <v>0.0293764268670358</v>
+        <v>0.1155554630449871</v>
       </c>
       <c r="T4">
-        <v>0.0293764268670358</v>
+        <v>0.1155554630449871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H5">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I5">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.425144</v>
+        <v>10.80616333333333</v>
       </c>
       <c r="N5">
-        <v>34.275432</v>
+        <v>32.41849</v>
       </c>
       <c r="O5">
-        <v>0.05063343220769446</v>
+        <v>0.04402602669409021</v>
       </c>
       <c r="P5">
-        <v>0.05063343220769446</v>
+        <v>0.04402602669409021</v>
       </c>
       <c r="Q5">
-        <v>0.4432194195733334</v>
+        <v>1.740357819214444</v>
       </c>
       <c r="R5">
-        <v>3.98897477616</v>
+        <v>15.66322037293</v>
       </c>
       <c r="S5">
-        <v>0.009828782611134059</v>
+        <v>0.04402602669409021</v>
       </c>
       <c r="T5">
-        <v>0.009828782611134059</v>
+        <v>0.04402602669409021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H6">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I6">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>107.7939093333333</v>
+        <v>129.3415933333333</v>
       </c>
       <c r="N6">
-        <v>323.381728</v>
+        <v>388.02478</v>
       </c>
       <c r="O6">
-        <v>0.4777161321232972</v>
+        <v>0.5269582057106448</v>
       </c>
       <c r="P6">
-        <v>0.4777161321232972</v>
+        <v>0.5269582057106448</v>
       </c>
       <c r="Q6">
-        <v>4.18168505607111</v>
+        <v>20.83076540338444</v>
       </c>
       <c r="R6">
-        <v>37.63516550463999</v>
+        <v>187.47688863046</v>
       </c>
       <c r="S6">
-        <v>0.09273256438970291</v>
+        <v>0.5269582057106448</v>
       </c>
       <c r="T6">
-        <v>0.09273256438970291</v>
+        <v>0.5269582057106448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H7">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I7">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.49652733333333</v>
+        <v>32.356301</v>
       </c>
       <c r="N7">
-        <v>115.489582</v>
+        <v>97.06890300000001</v>
       </c>
       <c r="O7">
-        <v>0.1706071544449672</v>
+        <v>0.1318247122134329</v>
       </c>
       <c r="P7">
-        <v>0.1706071544449672</v>
+        <v>0.1318247122134329</v>
       </c>
       <c r="Q7">
-        <v>1.493408617017777</v>
+        <v>5.211057774085668</v>
       </c>
       <c r="R7">
-        <v>13.44067755316</v>
+        <v>46.89951996677101</v>
       </c>
       <c r="S7">
-        <v>0.03311765684904397</v>
+        <v>0.1318247122134329</v>
       </c>
       <c r="T7">
-        <v>0.03311765684904397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J8">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>19.241015</v>
-      </c>
-      <c r="N8">
-        <v>57.723045</v>
-      </c>
-      <c r="O8">
-        <v>0.08527145291207991</v>
-      </c>
-      <c r="P8">
-        <v>0.08527145291207991</v>
-      </c>
-      <c r="Q8">
-        <v>3.098810361451667</v>
-      </c>
-      <c r="R8">
-        <v>27.889293253065</v>
-      </c>
-      <c r="S8">
-        <v>0.06871886034496918</v>
-      </c>
-      <c r="T8">
-        <v>0.06871886034496918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J9">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>14.54001933333333</v>
-      </c>
-      <c r="N9">
-        <v>43.620058</v>
-      </c>
-      <c r="O9">
-        <v>0.06443779467575202</v>
-      </c>
-      <c r="P9">
-        <v>0.06443779467575202</v>
-      </c>
-      <c r="Q9">
-        <v>2.341704040345111</v>
-      </c>
-      <c r="R9">
-        <v>21.075336363106</v>
-      </c>
-      <c r="S9">
-        <v>0.0519293580915812</v>
-      </c>
-      <c r="T9">
-        <v>0.0519293580915812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J10">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>34.14765800000001</v>
-      </c>
-      <c r="N10">
-        <v>102.442974</v>
-      </c>
-      <c r="O10">
-        <v>0.1513340336362094</v>
-      </c>
-      <c r="P10">
-        <v>0.1513340336362094</v>
-      </c>
-      <c r="Q10">
-        <v>5.499559998768668</v>
-      </c>
-      <c r="R10">
-        <v>49.49603998891801</v>
-      </c>
-      <c r="S10">
-        <v>0.1219576067691736</v>
-      </c>
-      <c r="T10">
-        <v>0.1219576067691736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J11">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>11.425144</v>
-      </c>
-      <c r="N11">
-        <v>34.275432</v>
-      </c>
-      <c r="O11">
-        <v>0.05063343220769446</v>
-      </c>
-      <c r="P11">
-        <v>0.05063343220769446</v>
-      </c>
-      <c r="Q11">
-        <v>1.840046099869334</v>
-      </c>
-      <c r="R11">
-        <v>16.560414898824</v>
-      </c>
-      <c r="S11">
-        <v>0.0408046495965604</v>
-      </c>
-      <c r="T11">
-        <v>0.0408046495965604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J12">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>107.7939093333333</v>
-      </c>
-      <c r="N12">
-        <v>323.381728</v>
-      </c>
-      <c r="O12">
-        <v>0.4777161321232972</v>
-      </c>
-      <c r="P12">
-        <v>0.4777161321232972</v>
-      </c>
-      <c r="Q12">
-        <v>17.36046061725511</v>
-      </c>
-      <c r="R12">
-        <v>156.244145555296</v>
-      </c>
-      <c r="S12">
-        <v>0.3849835677335942</v>
-      </c>
-      <c r="T12">
-        <v>0.3849835677335942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J13">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>38.49652733333333</v>
-      </c>
-      <c r="N13">
-        <v>115.489582</v>
-      </c>
-      <c r="O13">
-        <v>0.1706071544449672</v>
-      </c>
-      <c r="P13">
-        <v>0.1706071544449672</v>
-      </c>
-      <c r="Q13">
-        <v>6.199955552263777</v>
-      </c>
-      <c r="R13">
-        <v>55.799599970374</v>
-      </c>
-      <c r="S13">
-        <v>0.1374894975959232</v>
-      </c>
-      <c r="T13">
-        <v>0.1374894975959232</v>
+        <v>0.1318247122134329</v>
       </c>
     </row>
   </sheetData>
